--- a/Project/My Implementation Part/Data/RealData/RealData.xlsx
+++ b/Project/My Implementation Part/Data/RealData/RealData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Norm1" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Column1</t>
   </si>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dedication Range (0, 0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dedication range (0, 0.5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5558,16 +5566,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5628,16 +5636,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>719137</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5663,16 +5671,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5830,8 +5838,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="rNorm1_plot1" displayName="rNorm1_plot1" ref="D4:E36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="D4:E36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5841,8 +5849,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="rElite2_plot1" displayName="rElite2_plot1" ref="D4:E36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="D4:E36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5852,8 +5860,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="rElite2_plot2" displayName="rElite2_plot2" ref="H4:I36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H4:I36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5863,8 +5871,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="rElite2_plot3" displayName="rElite2_plot3" ref="L4:M36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="L4:M36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5874,8 +5882,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="rNorm1_plot2" displayName="rNorm1_plot2" ref="H4:I36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H4:I36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5885,8 +5893,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="rNorm1_plot3" displayName="rNorm1_plot3" ref="L4:M36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="L4:M36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5896,8 +5904,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="rNorm2_plot1" displayName="rNorm2_plot1" ref="D4:E36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="D4:E36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5907,8 +5915,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="rNorm2_plot2" displayName="rNorm2_plot2" ref="H4:I36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H4:I36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5918,8 +5926,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="rNorm2_plot3" displayName="rNorm2_plot3" ref="L4:M36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="L4:M36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5929,8 +5937,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="rElite1_plot1" displayName="rElite1_plot1" ref="D4:E36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="D4:E36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5940,8 +5948,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rElite1_plot2" displayName="rElite1_plot2" ref="H4:I36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H4:I36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="21"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5951,8 +5959,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="rElite1_plot3" displayName="rElite1_plot3" ref="L4:M36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="L4:M36"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="6" uniqueName="6" name="Column2" queryTableFieldId="2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6221,14 +6229,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:Q36"/>
+  <dimension ref="B2:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
@@ -6236,7 +6245,12 @@
     <col min="16" max="17" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6265,7 +6279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D5" s="1">
         <v>9.6070053704916582E-3</v>
       </c>
@@ -6296,7 +6310,7 @@
         <v>8.9765403418819723E-3</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6328,7 +6342,7 @@
         <v>9.5974167966820789E-3</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6360,7 +6374,7 @@
         <v>9.6030100177036774E-3</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6392,7 +6406,7 @@
         <v>9.6037874222899659E-3</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6424,7 +6438,7 @@
         <v>9.6056902080126592E-3</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6456,7 +6470,7 @@
         <v>9.6072166135103797E-3</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6488,7 +6502,7 @@
         <v>9.6103476315609632E-3</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6520,7 +6534,7 @@
         <v>9.6119314109795288E-3</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6552,7 +6566,7 @@
         <v>9.613557684659213E-3</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6584,7 +6598,7 @@
         <v>9.6149208478403074E-3</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -6616,7 +6630,7 @@
         <v>9.6166031815034716E-3</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>9.646367663779503E-3</v>
       </c>
@@ -7291,21 +7305,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:Q36"/>
+  <dimension ref="B2:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7316,7 +7331,12 @@
     <col min="16" max="17" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7345,7 +7365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D5" s="1">
         <v>0.23114228184547064</v>
       </c>
@@ -7376,7 +7396,7 @@
         <v>6.4845009345870222E-3</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>0.24828007537792726</v>
       </c>
@@ -7408,7 +7428,7 @@
         <v>0.23492992727191378</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.24828007537792726</v>
       </c>
@@ -7440,7 +7460,7 @@
         <v>0.23741300967285303</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>0.24828007537792726</v>
       </c>
@@ -7472,7 +7492,7 @@
         <v>0.2385613474418643</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.25326560001496295</v>
       </c>
@@ -7504,7 +7524,7 @@
         <v>0.24014708691829723</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>0.25326560001496295</v>
       </c>
@@ -7536,7 +7556,7 @@
         <v>0.24164415739821843</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0.25326560001496295</v>
       </c>
@@ -7568,7 +7588,7 @@
         <v>0.24251941272918373</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>0.25326560001496295</v>
       </c>
@@ -7600,7 +7620,7 @@
         <v>0.24258638194846024</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>0.25326560001496295</v>
       </c>
@@ -7632,7 +7652,7 @@
         <v>0.24281210641028453</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>0.25326560001496295</v>
       </c>
@@ -7664,7 +7684,7 @@
         <v>0.24281210641028453</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>0.25326560001496295</v>
       </c>
@@ -7696,7 +7716,7 @@
         <v>0.24284396546216799</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>0.25326560001496295</v>
       </c>
@@ -8381,10 +8401,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:Q37"/>
+  <dimension ref="B2:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8396,7 +8416,12 @@
     <col min="16" max="17" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8413,7 +8438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>0</v>
       </c>
@@ -8451,7 +8476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C5">
         <f>C4+10</f>
         <v>10</v>
@@ -8494,7 +8519,7 @@
         <v>8.1257662771066306E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">C5+10</f>
         <v>20</v>
@@ -8538,7 +8563,7 @@
         <v>9.6063305008381433E-3</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8570,7 +8595,7 @@
         <v>9.6087233167057532E-3</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O6:O37" si="3">O6+10</f>
+        <f t="shared" ref="O7:O37" si="3">O6+10</f>
         <v>20</v>
       </c>
       <c r="P7">
@@ -8582,7 +8607,7 @@
         <v>9.6122491622719856E-3</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C8">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8626,7 +8651,7 @@
         <v>9.6151149649611519E-3</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -8670,7 +8695,7 @@
         <v>9.6155503232587414E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C10">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8714,7 +8739,7 @@
         <v>9.6159822077514726E-3</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -8758,7 +8783,7 @@
         <v>9.616370745591794E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -8802,7 +8827,7 @@
         <v>9.6174258026820725E-3</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -8846,7 +8871,7 @@
         <v>9.618940776224473E-3</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -8890,7 +8915,7 @@
         <v>9.619317551964152E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -8934,7 +8959,7 @@
         <v>9.6194193921128514E-3</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -9878,10 +9903,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:Q36"/>
+  <dimension ref="B2:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9892,7 +9917,12 @@
     <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9921,7 +9951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D5" s="1">
         <v>0.22854609355139427</v>
       </c>
@@ -9952,7 +9982,7 @@
         <v>6.4859129279622981E-3</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>0.24044891577346655</v>
       </c>
@@ -9984,7 +10014,7 @@
         <v>0.22799856246350259</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.24044891577346655</v>
       </c>
@@ -10004,7 +10034,7 @@
         <v>0.23290065716980704</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O37" si="0">O6+10</f>
+        <f t="shared" ref="O7:O36" si="0">O6+10</f>
         <v>20</v>
       </c>
       <c r="P7">
@@ -10016,7 +10046,7 @@
         <v>0.23180079658778921</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>0.25481723710404103</v>
       </c>
@@ -10048,7 +10078,7 @@
         <v>0.23787395410227394</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.25481723710404103</v>
       </c>
@@ -10080,7 +10110,7 @@
         <v>0.23856020140698578</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>0.25481723710404103</v>
       </c>
@@ -10112,7 +10142,7 @@
         <v>0.23865635118221448</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0.25481723710404103</v>
       </c>
@@ -10144,7 +10174,7 @@
         <v>0.23950777562674763</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>0.25481723710404103</v>
       </c>
@@ -10176,7 +10206,7 @@
         <v>0.24054067556088721</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>0.25481723710404103</v>
       </c>
@@ -10208,7 +10238,7 @@
         <v>0.24099912788979438</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>0.25481723710404103</v>
       </c>
@@ -10240,7 +10270,7 @@
         <v>0.24100454795608731</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>0.25481723710404103</v>
       </c>
@@ -10272,7 +10302,7 @@
         <v>0.24226653450773358</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>0.25481723710404103</v>
       </c>
